--- a/data/etiquetas.xlsx
+++ b/data/etiquetas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,93 @@
         <v>2024-11-20T20:14:57.297Z</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>210043272397</v>
+      </c>
+      <c r="C16" t="str">
+        <v>A100014</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2024-11-20T23:43:59.059Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>210043275832</v>
+      </c>
+      <c r="C17" t="str">
+        <v>A100052</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2024-11-20T23:44:06.045Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>210042287158</v>
+      </c>
+      <c r="C18" t="str">
+        <v>A100062</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2024-11-20T23:44:12.065Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>210042287159</v>
+      </c>
+      <c r="C19" t="str">
+        <v>BLBL001</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2024-11-20T23:47:17.864Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>210042287157</v>
+      </c>
+      <c r="C20" t="str">
+        <v>BLBL001</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2024-11-20T23:50:33.250Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>210042287156</v>
+      </c>
+      <c r="C21" t="str">
+        <v>blbl001</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2024-11-20T23:50:50.029Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
   </ignoredErrors>
 </worksheet>
 </file>